--- a/biology/Médecine/Moclobémide/Moclobémide.xlsx
+++ b/biology/Médecine/Moclobémide/Moclobémide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moclob%C3%A9mide</t>
+          <t>Moclobémide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le moclobémide est un inhibiteur réversible de la monoamine oxydase-A utilisé principalement dans le traitement de la dépression[3].
+Le moclobémide est un inhibiteur réversible de la monoamine oxydase-A utilisé principalement dans le traitement de la dépression.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moclob%C3%A9mide</t>
+          <t>Moclobémide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des effets indésirables[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des effets indésirables :
 trouble du sommeil ;
 agitation ;
 anxiété ;
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moclob%C3%A9mide</t>
+          <t>Moclobémide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +570,12 @@
           <t>Propriétés pharmacologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un antidépresseur (par inhibition de la mono-amine oxydase) et un IMAO A ; il inhibe préférentiellement et de façon réversible, au niveau central, la mono-amine oxydase de type A. Au niveau périphérique, l'inhibition porte sur la MAO A et la MAO B.
-Le moclobémide ne doit pas être associé à d'autres antidépresseurs, au risque d'interactions néfastes importantes. Certains régimes très spécifiques peuvent permettre de combiner le moclobémide avec un antidépresseur tricyclique ou ISRS. Une période de deux jours est nécessaire lors du passage à un antidépresseur tricyclique, et pour les ISRS, une période d'au moins quatre à cinq jours est nécessaire[3].
+Le moclobémide ne doit pas être associé à d'autres antidépresseurs, au risque d'interactions néfastes importantes. Certains régimes très spécifiques peuvent permettre de combiner le moclobémide avec un antidépresseur tricyclique ou ISRS. Une période de deux jours est nécessaire lors du passage à un antidépresseur tricyclique, et pour les ISRS, une période d'au moins quatre à cinq jours est nécessaire.
 </t>
         </is>
       </c>
